--- a/02_NodeJs/04_Web_Scrapping/02_Scrapping_IPL/ipl/Royal Challengers Bangalore/Batting/Glenn Maxwell.xlsx
+++ b/02_NodeJs/04_Web_Scrapping/02_Scrapping_IPL/ipl/Royal Challengers Bangalore/Batting/Glenn Maxwell.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Glenn Maxwell" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,90 +397,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>matchNo</v>
+      </c>
+      <c r="B1" t="str">
         <v>teamName</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>batterName</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>states</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>runs</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>balls</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>fours</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>sixes</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>sr</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>opponentTeamName</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>venue</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>date</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>result</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>22nd</v>
       </c>
       <c r="B2" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C2" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D2" t="str">
+        <v>c Smith b Mishra</v>
+      </c>
+      <c r="E2" t="str">
+        <v>25</v>
+      </c>
+      <c r="F2" t="str">
+        <v>20</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2</v>
+      </c>
+      <c r="I2" t="str">
+        <v>125.00</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Ahmedabad</v>
+      </c>
+      <c r="L2" t="str">
+        <v>April 27</v>
+      </c>
+      <c r="M2" t="str">
+        <v>RCB won by 1 run</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>10th</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D3" t="str">
+        <v>c Harbhajan Singh b Cummins</v>
+      </c>
+      <c r="E3" t="str">
+        <v>78</v>
+      </c>
+      <c r="F3" t="str">
+        <v>49</v>
+      </c>
+      <c r="G3" t="str">
+        <v>9</v>
+      </c>
+      <c r="H3" t="str">
+        <v>3</v>
+      </c>
+      <c r="I3" t="str">
+        <v>159.18</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="L3" t="str">
+        <v>April 18</v>
+      </c>
+      <c r="M3" t="str">
+        <v>RCB won by 38 runs</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Eliminator</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D4" t="str">
+        <v>c Ferguson b Narine</v>
+      </c>
+      <c r="E4" t="str">
+        <v>15</v>
+      </c>
+      <c r="F4" t="str">
+        <v>18</v>
+      </c>
+      <c r="G4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <v>83.33</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="L4" t="str">
+        <v>October 11</v>
+      </c>
+      <c r="M4" t="str">
+        <v>KKR won by 4 wickets (with 2 balls remaining)</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>31st</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D5" t="str">
+        <v>b Varun</v>
+      </c>
+      <c r="E5" t="str">
+        <v>10</v>
+      </c>
+      <c r="F5" t="str">
+        <v>17</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <v>58.82</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="L5" t="str">
+        <v>September 20</v>
+      </c>
+      <c r="M5" t="str">
+        <v>KKR won by 9 wickets (with 60 balls remaining)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>56th</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>51</v>
+      </c>
+      <c r="F6" t="str">
+        <v>33</v>
+      </c>
+      <c r="G6" t="str">
+        <v>8</v>
+      </c>
+      <c r="H6" t="str">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <v>154.54</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="L6" t="str">
+        <v>October 08</v>
+      </c>
+      <c r="M6" t="str">
+        <v>RCB won by 7 wickets</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>19th</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D7" t="str">
+        <v>b Jadeja</v>
+      </c>
+      <c r="E7" t="str">
+        <v>22</v>
+      </c>
+      <c r="F7" t="str">
+        <v>15</v>
+      </c>
+      <c r="G7" t="str">
+        <v>3</v>
+      </c>
+      <c r="H7" t="str">
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <v>146.66</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Wankhede</v>
+      </c>
+      <c r="L7" t="str">
+        <v>April 25</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Super Kings won by 69 runs</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>52nd</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D8" t="str">
+        <v>run out (Williamson)</v>
+      </c>
+      <c r="E8" t="str">
+        <v>40</v>
+      </c>
+      <c r="F8" t="str">
+        <v>25</v>
+      </c>
+      <c r="G8" t="str">
+        <v>3</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2</v>
+      </c>
+      <c r="I8" t="str">
+        <v>160.00</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="L8" t="str">
+        <v>October 06</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Sunrisers won by 4 runs</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>43rd</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v>50</v>
+      </c>
+      <c r="F9" t="str">
+        <v>30</v>
+      </c>
+      <c r="G9" t="str">
+        <v>6</v>
+      </c>
+      <c r="H9" t="str">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="L9" t="str">
+        <v>September 29</v>
+      </c>
+      <c r="M9" t="str">
+        <v>RCB won by 7 wickets (with 17 balls remaining)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>48th</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D10" t="str">
+        <v>c Khan b Mohammed Shami</v>
+      </c>
+      <c r="E10" t="str">
+        <v>57</v>
+      </c>
+      <c r="F10" t="str">
+        <v>33</v>
+      </c>
+      <c r="G10" t="str">
+        <v>3</v>
+      </c>
+      <c r="H10" t="str">
+        <v>4</v>
+      </c>
+      <c r="I10" t="str">
+        <v>172.72</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="L10" t="str">
+        <v>October 03</v>
+      </c>
+      <c r="M10" t="str">
+        <v>RCB won by 6 runs</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>35th</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D11" t="str">
+        <v>c Jadeja b Bravo</v>
+      </c>
+      <c r="E11" t="str">
+        <v>11</v>
+      </c>
+      <c r="F11" t="str">
+        <v>9</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <v>122.22</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="L11" t="str">
+        <v>September 24</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Super Kings won by 6 wickets (with 11 balls remaining)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>26th</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D12" t="str">
+        <v>b Harpreet Brar</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Ahmedabad</v>
+      </c>
+      <c r="L12" t="str">
+        <v>April 30</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Punjab Kings won by 34 runs</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>6th</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D13" t="str">
         <v>c †Saha b Holder</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E13" t="str">
         <v>59</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F13" t="str">
         <v>41</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G13" t="str">
         <v>5</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H13" t="str">
         <v>3</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I13" t="str">
         <v>143.90</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J13" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K13" t="str">
         <v>Chennai</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L13" t="str">
         <v>April 14</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M13" t="str">
         <v>RCB won by 6 runs</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>39th</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D14" t="str">
+        <v>c Boult b Bumrah</v>
+      </c>
+      <c r="E14" t="str">
+        <v>56</v>
+      </c>
+      <c r="F14" t="str">
+        <v>37</v>
+      </c>
+      <c r="G14" t="str">
+        <v>6</v>
+      </c>
+      <c r="H14" t="str">
+        <v>3</v>
+      </c>
+      <c r="I14" t="str">
+        <v>151.35</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="L14" t="str">
+        <v>September 26</v>
+      </c>
+      <c r="M14" t="str">
+        <v>RCB won by 54 runs</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>1st</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Glenn Maxwell</v>
+      </c>
+      <c r="D15" t="str">
+        <v>c Lynn b Jansen</v>
+      </c>
+      <c r="E15" t="str">
+        <v>39</v>
+      </c>
+      <c r="F15" t="str">
+        <v>28</v>
+      </c>
+      <c r="G15" t="str">
+        <v>3</v>
+      </c>
+      <c r="H15" t="str">
+        <v>2</v>
+      </c>
+      <c r="I15" t="str">
+        <v>139.28</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="L15" t="str">
+        <v>April 09</v>
+      </c>
+      <c r="M15" t="str">
+        <v>RCB won by 2 wickets</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M15"/>
   </ignoredErrors>
 </worksheet>
 </file>